--- a/biology/Microbiologie/Pseudocohnilembus/Pseudocohnilembus.xlsx
+++ b/biology/Microbiologie/Pseudocohnilembus/Pseudocohnilembus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pseudocohnilembidae
 Pseudocohnilembus, unique représentant de la famille des Pseudocohnilembidae, est un genre de Ciliés de l’ordre des Hymenostomatida (classe des Oligohymenophorea).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Pseudocohnilembus est composé du préfixe pseudo, « faux », et du suffixe cohnilembus, en référence au genre Cohnilembus Kahl, 1933., lequel est lui même composé du préfixe cohn, en référence au microbiologiste allemand Ferdinand J. Cohn, et du suffixe lembus, en référence au genre Lembus décrit par Cohn en 1866.
 </t>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cilié est de petite taille (&lt; 80 μm). Sa forme est allongée-pyriforme. Il vit en natation libre. Sa ciliation somatique est holotriche (c'est-à-dire uniforme), clairsemée ; un cil caudal est présent. Sa région buccale est longue et peu profonde. Il présente des polykinétides oraux avec de longs axes alignés plus ou moins avec le grand axe du corps et de la région buccale.
-Son macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte (anus) sont présents. Les espèces de ce genre sont bactérivores ou charognardes[1].
+Son macronoyau est globulaire à ellipsoïde. Micronoyau, vacuole contractile et cytoprocte (anus) sont présents. Les espèces de ce genre sont bactérivores ou charognardes.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce cilié vit dans des habitats marins, saumâtres et salins sous forme libre. Certaines espèces sont occasionnellement endocommensales dans les intestins des échinides (oursins), mais il existe une espèce d'eau douce et coprozoïque (c'est-à-dire associée aux déjections)[1], Pseudocohnilembus fluviatilis, découverte dans le lac de barrage de Navacerrada (en) (Espagne)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce cilié vit dans des habitats marins, saumâtres et salins sous forme libre. Certaines espèces sont occasionnellement endocommensales dans les intestins des échinides (oursins), mais il existe une espèce d'eau douce et coprozoïque (c'est-à-dire associée aux déjections), Pseudocohnilembus fluviatilis, découverte dans le lac de barrage de Navacerrada (en) (Espagne).
 </t>
         </is>
       </c>
@@ -606,14 +624,16 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (20 novembre 2023)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (20 novembre 2023) :
 Pseudocohnilembus antoniensis Fernandez-Leborans, 1986
 Pseudocohnilembus binucleatus Foissner, Agatha &amp; Berger, 2002
 Pseudocohnilembus caeci (Powers, 1935) Foissner, 1985
 Pseudocohnilembus cantabricus Fernandez-Leborans &amp; Casto de Zalumbide, 1984
-Pseudocohnilembus fluviatilis Fernandez-Leborans &amp; Novillo, 1994[2]
+Pseudocohnilembus fluviatilis Fernandez-Leborans &amp; Novillo, 1994
 Pseudocohnilembus hargisi Evans &amp; Thompson, 1964
 Pseudocohnilembus longisetus Evans &amp; Thompson, 1964
 Pseudocohnilembus marinus Thompson, 1966
@@ -650,7 +670,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) F.R. Evans et J.C. Thompson, « Pseudocohnilembidae new family, a hymenostome ciliate family containing one genus, Pseudocohnilembus n. g., with three new species », Journal of Protozoology, États-Unis, vol. 11, no 3,‎ août 1964, p. 344-352 (ISSN 0022-3921, e-ISSN 2375-0804).</t>
         </is>
@@ -680,7 +702,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Frederick R. Evans (d) et Jesse C. Thompson ont créé le genre Pseudocohnilembus  en 1964, en faisant allusion au genre Cohnilembus de la famille des Cohnilembidae, ces deux taxons ayant été créés par Alfred Kahl en 1933.
 Les espèces de Limbus décrites par Kahl en 1931, ont ensuite été classées en plusieurs familles, citons notamment :
